--- a/inst/extdata/examples/xlsx/forecasted-dashed-lines.xlsx
+++ b/inst/extdata/examples/xlsx/forecasted-dashed-lines.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">tab</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -445,7 +451,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -463,13 +477,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -513,7 +527,7 @@
         <v>97.1268568058241</v>
       </c>
       <c r="C5" t="n">
-        <v>95.6593954479891</v>
+        <v>95.659395447989</v>
       </c>
     </row>
     <row r="6">
